--- a/individual_case_outputs/avey/366.xlsx
+++ b/individual_case_outputs/avey/366.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>g6pd deficiency</t>
+          <t>hemolytic anemia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>g6pd deficiency</t>
+          <t>hemolytic anemia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>g6pd deficiency</t>
+          <t>hemolytic anemia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -688,7 +688,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hemolytic anemia</t>
+          <t>liver cirrhosis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hemolytic anemia</t>
+          <t>hemolytic uremic syndrome</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>hemolytic anemia</t>
+          <t>hemolytic uremic syndrome</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -783,26 +783,14 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>thalassemia</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>iga nephropathy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>hemolytic uremic syndrome</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>thalassemia</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>polycystic kidney disease</t>
@@ -876,22 +864,14 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>hereditary spherocytosis</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>ruptured renal cyst</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>hemolytic uremic syndrome</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>nephrolithiasis</t>
@@ -937,11 +917,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>liver cirrhosis</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>intra renal kidney injury</t>
